--- a/Code/Results/Cases/Case_1_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9771717891615367</v>
+        <v>1.013065630978526</v>
       </c>
       <c r="D2">
-        <v>1.050431584459985</v>
+        <v>1.053041699913072</v>
       </c>
       <c r="E2">
-        <v>0.9868229819119051</v>
+        <v>1.015035990613206</v>
       </c>
       <c r="F2">
-        <v>1.040438044462219</v>
+        <v>1.054275782223558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063157288537212</v>
+        <v>1.04300669601295</v>
       </c>
       <c r="J2">
-        <v>1.000057406699761</v>
+        <v>1.018304738957197</v>
       </c>
       <c r="K2">
-        <v>1.06123034694783</v>
+        <v>1.055788763495031</v>
       </c>
       <c r="L2">
-        <v>0.9984689981498954</v>
+        <v>1.017892351990943</v>
       </c>
       <c r="M2">
-        <v>1.05136135620865</v>
+        <v>1.057019440020605</v>
       </c>
       <c r="N2">
-        <v>1.004160894253069</v>
+        <v>1.010241486865392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9816673460978209</v>
+        <v>1.013995088309817</v>
       </c>
       <c r="D3">
-        <v>1.054241107076572</v>
+        <v>1.053732133425986</v>
       </c>
       <c r="E3">
-        <v>0.9903763946064402</v>
+        <v>1.015822506905327</v>
       </c>
       <c r="F3">
-        <v>1.045038398047837</v>
+        <v>1.055148175821361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064732329344735</v>
+        <v>1.043186372989367</v>
       </c>
       <c r="J3">
-        <v>1.002670567998085</v>
+        <v>1.018868276429063</v>
       </c>
       <c r="K3">
-        <v>1.06422399578201</v>
+        <v>1.056292477021201</v>
       </c>
       <c r="L3">
-        <v>1.001133910425835</v>
+        <v>1.018483995881102</v>
       </c>
       <c r="M3">
-        <v>1.055125696782887</v>
+        <v>1.057704893271765</v>
       </c>
       <c r="N3">
-        <v>1.005029318856164</v>
+        <v>1.010427958674937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9845117500152503</v>
+        <v>1.014596390955547</v>
       </c>
       <c r="D4">
-        <v>1.056631042271781</v>
+        <v>1.054175760094066</v>
       </c>
       <c r="E4">
-        <v>0.9926311390306454</v>
+        <v>1.016331751332403</v>
       </c>
       <c r="F4">
-        <v>1.047927157523419</v>
+        <v>1.055709279914853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065703304690428</v>
+        <v>1.043299420401619</v>
       </c>
       <c r="J4">
-        <v>1.004320119669295</v>
+        <v>1.019232229856665</v>
       </c>
       <c r="K4">
-        <v>1.066090846137894</v>
+        <v>1.056614612759628</v>
       </c>
       <c r="L4">
-        <v>1.00281932092591</v>
+        <v>1.018866494194132</v>
       </c>
       <c r="M4">
-        <v>1.057479609395594</v>
+        <v>1.058144402814282</v>
       </c>
       <c r="N4">
-        <v>1.005577411339798</v>
+        <v>1.010548361237007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9856926621823143</v>
+        <v>1.014849149469311</v>
       </c>
       <c r="D5">
-        <v>1.05761829284929</v>
+        <v>1.054361509360631</v>
       </c>
       <c r="E5">
-        <v>0.9935687432242846</v>
+        <v>1.016545912063937</v>
       </c>
       <c r="F5">
-        <v>1.049121155806186</v>
+        <v>1.055944353807938</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066100216411868</v>
+        <v>1.043346174473119</v>
       </c>
       <c r="J5">
-        <v>1.005004013603194</v>
+        <v>1.019385069070498</v>
       </c>
       <c r="K5">
-        <v>1.066859276505956</v>
+        <v>1.056749126796056</v>
       </c>
       <c r="L5">
-        <v>1.003518846357938</v>
+        <v>1.019027215373162</v>
       </c>
       <c r="M5">
-        <v>1.05845012445681</v>
+        <v>1.058328207021805</v>
       </c>
       <c r="N5">
-        <v>1.005804621418324</v>
+        <v>1.010598916590716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9858900862584076</v>
+        <v>1.014891587005504</v>
       </c>
       <c r="D6">
-        <v>1.057783045487199</v>
+        <v>1.054392653356732</v>
       </c>
       <c r="E6">
-        <v>0.9937255781930552</v>
+        <v>1.016581874918337</v>
       </c>
       <c r="F6">
-        <v>1.049320452444903</v>
+        <v>1.05598377593982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066166204713209</v>
+        <v>1.043353979435117</v>
       </c>
       <c r="J6">
-        <v>1.005118289700517</v>
+        <v>1.019410721638663</v>
       </c>
       <c r="K6">
-        <v>1.066987349788699</v>
+        <v>1.0567716587661</v>
       </c>
       <c r="L6">
-        <v>1.003635779366148</v>
+        <v>1.019054196381867</v>
       </c>
       <c r="M6">
-        <v>1.058611974705329</v>
+        <v>1.058359011869985</v>
       </c>
       <c r="N6">
-        <v>1.005842585796237</v>
+        <v>1.010607401418814</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9845275871376279</v>
+        <v>1.014599768442618</v>
       </c>
       <c r="D7">
-        <v>1.056644302004181</v>
+        <v>1.0541782450401</v>
       </c>
       <c r="E7">
-        <v>0.9926437072954863</v>
+        <v>1.016334612667933</v>
       </c>
       <c r="F7">
-        <v>1.04794319128652</v>
+        <v>1.055712424186019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065708652274152</v>
+        <v>1.043300048163242</v>
       </c>
       <c r="J7">
-        <v>1.004329295117662</v>
+        <v>1.01923427275835</v>
       </c>
       <c r="K7">
-        <v>1.066101177817256</v>
+        <v>1.056616413728312</v>
       </c>
       <c r="L7">
-        <v>1.002828703071207</v>
+        <v>1.018868642078351</v>
       </c>
       <c r="M7">
-        <v>1.057492651719332</v>
+        <v>1.058146862612199</v>
       </c>
       <c r="N7">
-        <v>1.005580459803208</v>
+        <v>1.010549037003693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9787047978748664</v>
+        <v>1.013379769492723</v>
       </c>
       <c r="D8">
-        <v>1.051734885259956</v>
+        <v>1.053275682020736</v>
       </c>
       <c r="E8">
-        <v>0.9880333315797702</v>
+        <v>1.015301731358788</v>
       </c>
       <c r="F8">
-        <v>1.042011361041285</v>
+        <v>1.05457131307287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06369971216049</v>
+        <v>1.043068083771302</v>
       </c>
       <c r="J8">
-        <v>1.00094929414875</v>
+        <v>1.018495332040073</v>
       </c>
       <c r="K8">
-        <v>1.062256871412331</v>
+        <v>1.055959781625164</v>
       </c>
       <c r="L8">
-        <v>0.999377876582116</v>
+        <v>1.018092369582117</v>
       </c>
       <c r="M8">
-        <v>1.052650813639901</v>
+        <v>1.057251924219556</v>
       </c>
       <c r="N8">
-        <v>1.004457312139365</v>
+        <v>1.010304558946729</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9679227123000584</v>
+        <v>1.011229101277119</v>
       </c>
       <c r="D9">
-        <v>1.042484846159103</v>
+        <v>1.051661365384887</v>
       </c>
       <c r="E9">
-        <v>0.9795500814975419</v>
+        <v>1.013484134010088</v>
       </c>
       <c r="F9">
-        <v>1.030854672874342</v>
+        <v>1.052534627046993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059778620599662</v>
+        <v>1.042634757264553</v>
       </c>
       <c r="J9">
-        <v>0.994661370407715</v>
+        <v>1.017187954882145</v>
       </c>
       <c r="K9">
-        <v>1.054924291234567</v>
+        <v>1.054773686135148</v>
       </c>
       <c r="L9">
-        <v>0.9929838932959489</v>
+        <v>1.016721954358397</v>
       </c>
       <c r="M9">
-        <v>1.043466231585605</v>
+        <v>1.055644193659167</v>
       </c>
       <c r="N9">
-        <v>1.002367193544689</v>
+        <v>1.009871801300646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9603427241766003</v>
+        <v>1.009794774774515</v>
       </c>
       <c r="D10">
-        <v>1.035879091155404</v>
+        <v>1.050569204735547</v>
       </c>
       <c r="E10">
-        <v>0.9736261375910974</v>
+        <v>1.01227413273856</v>
       </c>
       <c r="F10">
-        <v>1.022897718430724</v>
+        <v>1.051159523918303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056889982194032</v>
+        <v>1.042329415744889</v>
       </c>
       <c r="J10">
-        <v>0.9902231738545468</v>
+        <v>1.01631287613076</v>
       </c>
       <c r="K10">
-        <v>1.049629407881904</v>
+        <v>1.053963544299537</v>
       </c>
       <c r="L10">
-        <v>0.9884884868820941</v>
+        <v>1.015806699413919</v>
       </c>
       <c r="M10">
-        <v>1.036865498887662</v>
+        <v>1.054551819531851</v>
       </c>
       <c r="N10">
-        <v>1.000891601441616</v>
+        <v>1.009581998331026</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9569574128901899</v>
+        <v>1.009173572910528</v>
       </c>
       <c r="D11">
-        <v>1.032905607478741</v>
+        <v>1.050092525037843</v>
       </c>
       <c r="E11">
-        <v>0.9709907379095118</v>
+        <v>1.011750612894063</v>
       </c>
       <c r="F11">
-        <v>1.01931779683054</v>
+        <v>1.050560001770569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055569481227946</v>
+        <v>1.042193308761241</v>
       </c>
       <c r="J11">
-        <v>0.9882373059761576</v>
+        <v>1.015933138024868</v>
       </c>
       <c r="K11">
-        <v>1.047232553493139</v>
+        <v>1.053608159604286</v>
       </c>
       <c r="L11">
-        <v>0.9864812766149136</v>
+        <v>1.015410003997909</v>
       </c>
       <c r="M11">
-        <v>1.033884376874956</v>
+        <v>1.054073955134469</v>
       </c>
       <c r="N11">
-        <v>1.00023130400086</v>
+        <v>1.009456205963612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9556835201730033</v>
+        <v>1.00894281195868</v>
       </c>
       <c r="D12">
-        <v>1.031783284325041</v>
+        <v>1.049914900517055</v>
       </c>
       <c r="E12">
-        <v>0.9700006600589988</v>
+        <v>1.0115562182483</v>
       </c>
       <c r="F12">
-        <v>1.017966785451491</v>
+        <v>1.050336698828908</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055068088359179</v>
+        <v>1.042142168715633</v>
       </c>
       <c r="J12">
-        <v>0.9874895074085447</v>
+        <v>1.015791963370464</v>
       </c>
       <c r="K12">
-        <v>1.046325888999805</v>
+        <v>1.053475466012004</v>
       </c>
       <c r="L12">
-        <v>0.9857260877992483</v>
+        <v>1.015262596714774</v>
       </c>
       <c r="M12">
-        <v>1.032757679609907</v>
+        <v>1.053895726402764</v>
       </c>
       <c r="N12">
-        <v>0.9999826584806927</v>
+        <v>1.0094094353806</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9559575343009133</v>
+        <v>1.00899231181517</v>
       </c>
       <c r="D13">
-        <v>1.032024847942446</v>
+        <v>1.049953027099592</v>
       </c>
       <c r="E13">
-        <v>0.9702135510787855</v>
+        <v>1.011597913650234</v>
       </c>
       <c r="F13">
-        <v>1.018257562454746</v>
+        <v>1.05038462582072</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055176139350835</v>
+        <v>1.0421531648357</v>
       </c>
       <c r="J13">
-        <v>0.9876503814011915</v>
+        <v>1.015822251369246</v>
       </c>
       <c r="K13">
-        <v>1.046521124446366</v>
+        <v>1.053503960345017</v>
       </c>
       <c r="L13">
-        <v>0.9858885223354474</v>
+        <v>1.015294218642409</v>
       </c>
       <c r="M13">
-        <v>1.03300025211041</v>
+        <v>1.053933990020323</v>
       </c>
       <c r="N13">
-        <v>1.000036149747692</v>
+        <v>1.009419469893505</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9568524535648703</v>
+        <v>1.009154498521633</v>
       </c>
       <c r="D14">
-        <v>1.032813204905624</v>
+        <v>1.050077854046007</v>
       </c>
       <c r="E14">
-        <v>0.9709091294017733</v>
+        <v>1.011734542861886</v>
       </c>
       <c r="F14">
-        <v>1.01920656213905</v>
+        <v>1.050541555992502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055528260897424</v>
+        <v>1.04218909341453</v>
       </c>
       <c r="J14">
-        <v>0.9881757031567201</v>
+        <v>1.015921470989574</v>
       </c>
       <c r="K14">
-        <v>1.047157946567603</v>
+        <v>1.053597205135587</v>
       </c>
       <c r="L14">
-        <v>0.9864190518202027</v>
+        <v>1.015397820423276</v>
       </c>
       <c r="M14">
-        <v>1.033791644472785</v>
+        <v>1.054059237547601</v>
       </c>
       <c r="N14">
-        <v>1.000210820919343</v>
+        <v>1.009452340823464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9574016352337233</v>
+        <v>1.009254424610656</v>
       </c>
       <c r="D15">
-        <v>1.033296547535093</v>
+        <v>1.050154689294461</v>
       </c>
       <c r="E15">
-        <v>0.9713361985050296</v>
+        <v>1.011818733130857</v>
       </c>
       <c r="F15">
-        <v>1.019788420578555</v>
+        <v>1.050638164562862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05574375683025</v>
+        <v>1.042211152857573</v>
       </c>
       <c r="J15">
-        <v>0.9884980085593073</v>
+        <v>1.015982587191303</v>
       </c>
       <c r="K15">
-        <v>1.047548122452799</v>
+        <v>1.053654565216355</v>
       </c>
       <c r="L15">
-        <v>0.9867446377646639</v>
+        <v>1.01546164537625</v>
       </c>
       <c r="M15">
-        <v>1.034276651680283</v>
+        <v>1.054136310174867</v>
       </c>
       <c r="N15">
-        <v>1.000317988079362</v>
+        <v>1.009472587640102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9605651445286328</v>
+        <v>1.009835999218071</v>
       </c>
       <c r="D16">
-        <v>1.036073977452493</v>
+        <v>1.050600761160548</v>
       </c>
       <c r="E16">
-        <v>0.9737995081961931</v>
+        <v>1.012308885936296</v>
       </c>
       <c r="F16">
-        <v>1.023132383549573</v>
+        <v>1.051199226095431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05697611522842</v>
+        <v>1.042338366792355</v>
       </c>
       <c r="J16">
-        <v>0.9903535746955966</v>
+        <v>1.016338060811174</v>
       </c>
       <c r="K16">
-        <v>1.049786225022788</v>
+        <v>1.053987033469413</v>
       </c>
       <c r="L16">
-        <v>0.9886203782350388</v>
+        <v>1.015833018756299</v>
       </c>
       <c r="M16">
-        <v>1.037060680164307</v>
+        <v>1.05458343156389</v>
       </c>
       <c r="N16">
-        <v>1.000934958790793</v>
+        <v>1.009590340334753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9625212774689321</v>
+        <v>1.010200771395824</v>
       </c>
       <c r="D17">
-        <v>1.037785321324868</v>
+        <v>1.050879562814147</v>
       </c>
       <c r="E17">
-        <v>0.9753254401572704</v>
+        <v>1.012616458671837</v>
       </c>
       <c r="F17">
-        <v>1.025193229846658</v>
+        <v>1.051550070171794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057730188843956</v>
+        <v>1.042417123353286</v>
       </c>
       <c r="J17">
-        <v>0.9915000008921468</v>
+        <v>1.016560820097831</v>
       </c>
       <c r="K17">
-        <v>1.051161757251538</v>
+        <v>1.054194354708083</v>
       </c>
       <c r="L17">
-        <v>0.9897803923484461</v>
+        <v>1.016065869196448</v>
       </c>
       <c r="M17">
-        <v>1.038773493647027</v>
+        <v>1.054862599087475</v>
       </c>
       <c r="N17">
-        <v>1.001316132573939</v>
+        <v>1.009664121799075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9636523741394749</v>
+        <v>1.010413524356977</v>
       </c>
       <c r="D18">
-        <v>1.03877266236808</v>
+        <v>1.051041819552614</v>
       </c>
       <c r="E18">
-        <v>0.9762087519970355</v>
+        <v>1.012795900974541</v>
       </c>
       <c r="F18">
-        <v>1.026382384765732</v>
+        <v>1.051754316550228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058163332827293</v>
+        <v>1.042462685135309</v>
       </c>
       <c r="J18">
-        <v>0.9921625450981151</v>
+        <v>1.016690672347655</v>
       </c>
       <c r="K18">
-        <v>1.051954086211238</v>
+        <v>1.054314838920716</v>
       </c>
       <c r="L18">
-        <v>0.9904511914880004</v>
+        <v>1.016201649820826</v>
       </c>
       <c r="M18">
-        <v>1.039760749626611</v>
+        <v>1.055024963849049</v>
       </c>
       <c r="N18">
-        <v>1.001536416619362</v>
+        <v>1.009707127760893</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9640364000586182</v>
+        <v>1.010486065487648</v>
       </c>
       <c r="D19">
-        <v>1.039107503020378</v>
+        <v>1.051097083196887</v>
       </c>
       <c r="E19">
-        <v>0.9765088133808506</v>
+        <v>1.012857092971486</v>
       </c>
       <c r="F19">
-        <v>1.026785698277565</v>
+        <v>1.051823892242296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058309900667924</v>
+        <v>1.04247815679162</v>
       </c>
       <c r="J19">
-        <v>0.992387428318207</v>
+        <v>1.016734935108442</v>
       </c>
       <c r="K19">
-        <v>1.052222575390418</v>
+        <v>1.054355845780671</v>
       </c>
       <c r="L19">
-        <v>0.9906789446563422</v>
+        <v>1.016247941189367</v>
       </c>
       <c r="M19">
-        <v>1.040095403250875</v>
+        <v>1.05508024645333</v>
       </c>
       <c r="N19">
-        <v>1.001611185414359</v>
+        <v>1.009721786668261</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.962312431699384</v>
+        <v>1.01016163608051</v>
       </c>
       <c r="D20">
-        <v>1.03760283915211</v>
+        <v>1.050849687627723</v>
       </c>
       <c r="E20">
-        <v>0.9751624233649105</v>
+        <v>1.012583454849073</v>
       </c>
       <c r="F20">
-        <v>1.024973462429958</v>
+        <v>1.051512468773431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057649979295238</v>
+        <v>1.042408712361735</v>
       </c>
       <c r="J20">
-        <v>0.9913776396895208</v>
+        <v>1.016536928349868</v>
       </c>
       <c r="K20">
-        <v>1.051015214585931</v>
+        <v>1.054172156887329</v>
       </c>
       <c r="L20">
-        <v>0.9896565390749723</v>
+        <v>1.01604089037957</v>
       </c>
       <c r="M20">
-        <v>1.038590951694215</v>
+        <v>1.054832695547238</v>
       </c>
       <c r="N20">
-        <v>1.001275449293837</v>
+        <v>1.00965620879761</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9565893838607162</v>
+        <v>1.009106739097662</v>
       </c>
       <c r="D21">
-        <v>1.032581552961929</v>
+        <v>1.050041111191771</v>
       </c>
       <c r="E21">
-        <v>0.9707046125106308</v>
+        <v>1.011694307191386</v>
       </c>
       <c r="F21">
-        <v>1.018927701480455</v>
+        <v>1.050495360900299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055424874391806</v>
+        <v>1.042178529453797</v>
       </c>
       <c r="J21">
-        <v>0.9880212938843882</v>
+        <v>1.015892256674922</v>
       </c>
       <c r="K21">
-        <v>1.046970876200657</v>
+        <v>1.053569765847234</v>
       </c>
       <c r="L21">
-        <v>0.9862630939825469</v>
+        <v>1.015367313847026</v>
       </c>
       <c r="M21">
-        <v>1.033559141639623</v>
+        <v>1.054022375374976</v>
       </c>
       <c r="N21">
-        <v>1.000159479422947</v>
+        <v>1.009442662413433</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9528954506523791</v>
+        <v>1.008443374241028</v>
       </c>
       <c r="D22">
-        <v>1.029320793051915</v>
+        <v>1.049529461998626</v>
       </c>
       <c r="E22">
-        <v>0.9678368271918105</v>
+        <v>1.011135635166361</v>
       </c>
       <c r="F22">
-        <v>1.0150028436978</v>
+        <v>1.049852314565923</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053962559565259</v>
+        <v>1.04203042674578</v>
       </c>
       <c r="J22">
-        <v>0.9858519568000578</v>
+        <v>1.015486214597545</v>
       </c>
       <c r="K22">
-        <v>1.044332949264073</v>
+        <v>1.053187039389641</v>
       </c>
       <c r="L22">
-        <v>0.9840735521201607</v>
+        <v>1.01494348044766</v>
       </c>
       <c r="M22">
-        <v>1.030282837277371</v>
+        <v>1.053508680002628</v>
       </c>
       <c r="N22">
-        <v>0.9994381635792299</v>
+        <v>1.009308133052136</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9548630742179672</v>
+        <v>1.008795046709919</v>
       </c>
       <c r="D23">
-        <v>1.031059509876082</v>
+        <v>1.04980100593561</v>
       </c>
       <c r="E23">
-        <v>0.9693634712126223</v>
+        <v>1.011431762329661</v>
       </c>
       <c r="F23">
-        <v>1.017095583285075</v>
+        <v>1.050193541717652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054743913296327</v>
+        <v>1.042109258663453</v>
       </c>
       <c r="J23">
-        <v>0.987007750338397</v>
+        <v>1.015701532402228</v>
       </c>
       <c r="K23">
-        <v>1.045740634529906</v>
+        <v>1.053390306673207</v>
       </c>
       <c r="L23">
-        <v>0.9852397528207324</v>
+        <v>1.015168193503035</v>
       </c>
       <c r="M23">
-        <v>1.032030663326698</v>
+        <v>1.053781398714005</v>
       </c>
       <c r="N23">
-        <v>0.9998224719248415</v>
+        <v>1.009379474583471</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9624068305838316</v>
+        <v>1.010179319683393</v>
       </c>
       <c r="D24">
-        <v>1.037685328480443</v>
+        <v>1.050863188061659</v>
       </c>
       <c r="E24">
-        <v>0.9752361044156415</v>
+        <v>1.012598367731359</v>
       </c>
       <c r="F24">
-        <v>1.025072805658329</v>
+        <v>1.051529460447138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057686243193768</v>
+        <v>1.042412514087187</v>
       </c>
       <c r="J24">
-        <v>0.9914329484067163</v>
+        <v>1.016547724247886</v>
       </c>
       <c r="K24">
-        <v>1.051081461745301</v>
+        <v>1.054182188494928</v>
       </c>
       <c r="L24">
-        <v>0.9897125209787189</v>
+        <v>1.01605217734633</v>
       </c>
       <c r="M24">
-        <v>1.038673470941684</v>
+        <v>1.054846209118573</v>
       </c>
       <c r="N24">
-        <v>1.001293838633713</v>
+        <v>1.009659784433558</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9707760105063066</v>
+        <v>1.011785199938692</v>
       </c>
       <c r="D25">
-        <v>1.044950754198893</v>
+        <v>1.052081523861484</v>
       </c>
       <c r="E25">
-        <v>0.9817884265472151</v>
+        <v>1.01395372644933</v>
       </c>
       <c r="F25">
-        <v>1.033826871281722</v>
+        <v>1.053064217809813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060839274988941</v>
+        <v>1.042749687897841</v>
       </c>
       <c r="J25">
-        <v>0.9963285554188731</v>
+        <v>1.017526562523082</v>
       </c>
       <c r="K25">
-        <v>1.056889158525208</v>
+        <v>1.0550837489584</v>
       </c>
       <c r="L25">
-        <v>0.9946761895087963</v>
+        <v>1.017076533179131</v>
       </c>
       <c r="M25">
-        <v>1.045921820250575</v>
+        <v>1.056063461017491</v>
       </c>
       <c r="N25">
-        <v>1.002921435634285</v>
+        <v>1.009983909517986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013065630978526</v>
+        <v>0.9771717891615368</v>
       </c>
       <c r="D2">
-        <v>1.053041699913072</v>
+        <v>1.050431584459985</v>
       </c>
       <c r="E2">
-        <v>1.015035990613206</v>
+        <v>0.9868229819119058</v>
       </c>
       <c r="F2">
-        <v>1.054275782223558</v>
+        <v>1.040438044462218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04300669601295</v>
+        <v>1.063157288537211</v>
       </c>
       <c r="J2">
-        <v>1.018304738957197</v>
+        <v>1.000057406699762</v>
       </c>
       <c r="K2">
-        <v>1.055788763495031</v>
+        <v>1.06123034694783</v>
       </c>
       <c r="L2">
-        <v>1.017892351990943</v>
+        <v>0.998468998149896</v>
       </c>
       <c r="M2">
-        <v>1.057019440020605</v>
+        <v>1.05136135620865</v>
       </c>
       <c r="N2">
-        <v>1.010241486865392</v>
+        <v>1.004160894253069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013995088309817</v>
+        <v>0.9816673460978204</v>
       </c>
       <c r="D3">
-        <v>1.053732133425986</v>
+        <v>1.054241107076572</v>
       </c>
       <c r="E3">
-        <v>1.015822506905327</v>
+        <v>0.9903763946064399</v>
       </c>
       <c r="F3">
-        <v>1.055148175821361</v>
+        <v>1.045038398047837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043186372989367</v>
+        <v>1.064732329344735</v>
       </c>
       <c r="J3">
-        <v>1.018868276429063</v>
+        <v>1.002670567998085</v>
       </c>
       <c r="K3">
-        <v>1.056292477021201</v>
+        <v>1.06422399578201</v>
       </c>
       <c r="L3">
-        <v>1.018483995881102</v>
+        <v>1.001133910425835</v>
       </c>
       <c r="M3">
-        <v>1.057704893271765</v>
+        <v>1.055125696782887</v>
       </c>
       <c r="N3">
-        <v>1.010427958674937</v>
+        <v>1.005029318856164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014596390955547</v>
+        <v>0.9845117500152498</v>
       </c>
       <c r="D4">
-        <v>1.054175760094066</v>
+        <v>1.056631042271781</v>
       </c>
       <c r="E4">
-        <v>1.016331751332403</v>
+        <v>0.9926311390306451</v>
       </c>
       <c r="F4">
-        <v>1.055709279914853</v>
+        <v>1.047927157523419</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043299420401619</v>
+        <v>1.065703304690428</v>
       </c>
       <c r="J4">
-        <v>1.019232229856665</v>
+        <v>1.004320119669295</v>
       </c>
       <c r="K4">
-        <v>1.056614612759628</v>
+        <v>1.066090846137895</v>
       </c>
       <c r="L4">
-        <v>1.018866494194132</v>
+        <v>1.00281932092591</v>
       </c>
       <c r="M4">
-        <v>1.058144402814282</v>
+        <v>1.057479609395594</v>
       </c>
       <c r="N4">
-        <v>1.010548361237007</v>
+        <v>1.005577411339798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014849149469311</v>
+        <v>0.9856926621823143</v>
       </c>
       <c r="D5">
-        <v>1.054361509360631</v>
+        <v>1.05761829284929</v>
       </c>
       <c r="E5">
-        <v>1.016545912063937</v>
+        <v>0.993568743224284</v>
       </c>
       <c r="F5">
-        <v>1.055944353807938</v>
+        <v>1.049121155806186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043346174473119</v>
+        <v>1.066100216411868</v>
       </c>
       <c r="J5">
-        <v>1.019385069070498</v>
+        <v>1.005004013603194</v>
       </c>
       <c r="K5">
-        <v>1.056749126796056</v>
+        <v>1.066859276505955</v>
       </c>
       <c r="L5">
-        <v>1.019027215373162</v>
+        <v>1.003518846357938</v>
       </c>
       <c r="M5">
-        <v>1.058328207021805</v>
+        <v>1.05845012445681</v>
       </c>
       <c r="N5">
-        <v>1.010598916590716</v>
+        <v>1.005804621418324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014891587005504</v>
+        <v>0.9858900862584078</v>
       </c>
       <c r="D6">
-        <v>1.054392653356732</v>
+        <v>1.057783045487199</v>
       </c>
       <c r="E6">
-        <v>1.016581874918337</v>
+        <v>0.9937255781930551</v>
       </c>
       <c r="F6">
-        <v>1.05598377593982</v>
+        <v>1.049320452444904</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043353979435117</v>
+        <v>1.066166204713209</v>
       </c>
       <c r="J6">
-        <v>1.019410721638663</v>
+        <v>1.005118289700517</v>
       </c>
       <c r="K6">
-        <v>1.0567716587661</v>
+        <v>1.0669873497887</v>
       </c>
       <c r="L6">
-        <v>1.019054196381867</v>
+        <v>1.003635779366148</v>
       </c>
       <c r="M6">
-        <v>1.058359011869985</v>
+        <v>1.058611974705329</v>
       </c>
       <c r="N6">
-        <v>1.010607401418814</v>
+        <v>1.005842585796237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014599768442618</v>
+        <v>0.9845275871376284</v>
       </c>
       <c r="D7">
-        <v>1.0541782450401</v>
+        <v>1.056644302004181</v>
       </c>
       <c r="E7">
-        <v>1.016334612667933</v>
+        <v>0.9926437072954871</v>
       </c>
       <c r="F7">
-        <v>1.055712424186019</v>
+        <v>1.047943191286521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043300048163242</v>
+        <v>1.065708652274152</v>
       </c>
       <c r="J7">
-        <v>1.01923427275835</v>
+        <v>1.004329295117662</v>
       </c>
       <c r="K7">
-        <v>1.056616413728312</v>
+        <v>1.066101177817257</v>
       </c>
       <c r="L7">
-        <v>1.018868642078351</v>
+        <v>1.002828703071207</v>
       </c>
       <c r="M7">
-        <v>1.058146862612199</v>
+        <v>1.057492651719333</v>
       </c>
       <c r="N7">
-        <v>1.010549037003693</v>
+        <v>1.005580459803208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013379769492723</v>
+        <v>0.9787047978748667</v>
       </c>
       <c r="D8">
-        <v>1.053275682020736</v>
+        <v>1.051734885259957</v>
       </c>
       <c r="E8">
-        <v>1.015301731358788</v>
+        <v>0.9880333315797707</v>
       </c>
       <c r="F8">
-        <v>1.05457131307287</v>
+        <v>1.042011361041286</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043068083771302</v>
+        <v>1.06369971216049</v>
       </c>
       <c r="J8">
-        <v>1.018495332040073</v>
+        <v>1.00094929414875</v>
       </c>
       <c r="K8">
-        <v>1.055959781625164</v>
+        <v>1.062256871412332</v>
       </c>
       <c r="L8">
-        <v>1.018092369582117</v>
+        <v>0.9993778765821163</v>
       </c>
       <c r="M8">
-        <v>1.057251924219556</v>
+        <v>1.052650813639902</v>
       </c>
       <c r="N8">
-        <v>1.010304558946729</v>
+        <v>1.004457312139365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011229101277119</v>
+        <v>0.9679227123000586</v>
       </c>
       <c r="D9">
-        <v>1.051661365384887</v>
+        <v>1.042484846159104</v>
       </c>
       <c r="E9">
-        <v>1.013484134010088</v>
+        <v>0.9795500814975422</v>
       </c>
       <c r="F9">
-        <v>1.052534627046993</v>
+        <v>1.030854672874342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042634757264553</v>
+        <v>1.059778620599663</v>
       </c>
       <c r="J9">
-        <v>1.017187954882145</v>
+        <v>0.9946613704077151</v>
       </c>
       <c r="K9">
-        <v>1.054773686135148</v>
+        <v>1.054924291234568</v>
       </c>
       <c r="L9">
-        <v>1.016721954358397</v>
+        <v>0.9929838932959492</v>
       </c>
       <c r="M9">
-        <v>1.055644193659167</v>
+        <v>1.043466231585606</v>
       </c>
       <c r="N9">
-        <v>1.009871801300646</v>
+        <v>1.002367193544689</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009794774774515</v>
+        <v>0.9603427241765998</v>
       </c>
       <c r="D10">
-        <v>1.050569204735547</v>
+        <v>1.035879091155404</v>
       </c>
       <c r="E10">
-        <v>1.01227413273856</v>
+        <v>0.973626137591097</v>
       </c>
       <c r="F10">
-        <v>1.051159523918303</v>
+        <v>1.022897718430723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042329415744889</v>
+        <v>1.056889982194032</v>
       </c>
       <c r="J10">
-        <v>1.01631287613076</v>
+        <v>0.9902231738545466</v>
       </c>
       <c r="K10">
-        <v>1.053963544299537</v>
+        <v>1.049629407881904</v>
       </c>
       <c r="L10">
-        <v>1.015806699413919</v>
+        <v>0.9884884868820936</v>
       </c>
       <c r="M10">
-        <v>1.054551819531851</v>
+        <v>1.036865498887662</v>
       </c>
       <c r="N10">
-        <v>1.009581998331026</v>
+        <v>1.000891601441616</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009173572910528</v>
+        <v>0.9569574128901898</v>
       </c>
       <c r="D11">
-        <v>1.050092525037843</v>
+        <v>1.032905607478741</v>
       </c>
       <c r="E11">
-        <v>1.011750612894063</v>
+        <v>0.970990737909512</v>
       </c>
       <c r="F11">
-        <v>1.050560001770569</v>
+        <v>1.01931779683054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042193308761241</v>
+        <v>1.055569481227946</v>
       </c>
       <c r="J11">
-        <v>1.015933138024868</v>
+        <v>0.9882373059761576</v>
       </c>
       <c r="K11">
-        <v>1.053608159604286</v>
+        <v>1.047232553493139</v>
       </c>
       <c r="L11">
-        <v>1.015410003997909</v>
+        <v>0.9864812766149136</v>
       </c>
       <c r="M11">
-        <v>1.054073955134469</v>
+        <v>1.033884376874956</v>
       </c>
       <c r="N11">
-        <v>1.009456205963612</v>
+        <v>1.00023130400086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00894281195868</v>
+        <v>0.9556835201730032</v>
       </c>
       <c r="D12">
-        <v>1.049914900517055</v>
+        <v>1.031783284325041</v>
       </c>
       <c r="E12">
-        <v>1.0115562182483</v>
+        <v>0.9700006600589987</v>
       </c>
       <c r="F12">
-        <v>1.050336698828908</v>
+        <v>1.017966785451491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042142168715633</v>
+        <v>1.055068088359179</v>
       </c>
       <c r="J12">
-        <v>1.015791963370464</v>
+        <v>0.9874895074085445</v>
       </c>
       <c r="K12">
-        <v>1.053475466012004</v>
+        <v>1.046325888999805</v>
       </c>
       <c r="L12">
-        <v>1.015262596714774</v>
+        <v>0.9857260877992482</v>
       </c>
       <c r="M12">
-        <v>1.053895726402764</v>
+        <v>1.032757679609906</v>
       </c>
       <c r="N12">
-        <v>1.0094094353806</v>
+        <v>0.9999826584806927</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00899231181517</v>
+        <v>0.9559575343009131</v>
       </c>
       <c r="D13">
-        <v>1.049953027099592</v>
+        <v>1.032024847942446</v>
       </c>
       <c r="E13">
-        <v>1.011597913650234</v>
+        <v>0.9702135510787854</v>
       </c>
       <c r="F13">
-        <v>1.05038462582072</v>
+        <v>1.018257562454746</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0421531648357</v>
+        <v>1.055176139350835</v>
       </c>
       <c r="J13">
-        <v>1.015822251369246</v>
+        <v>0.9876503814011913</v>
       </c>
       <c r="K13">
-        <v>1.053503960345017</v>
+        <v>1.046521124446365</v>
       </c>
       <c r="L13">
-        <v>1.015294218642409</v>
+        <v>0.9858885223354473</v>
       </c>
       <c r="M13">
-        <v>1.053933990020323</v>
+        <v>1.03300025211041</v>
       </c>
       <c r="N13">
-        <v>1.009419469893505</v>
+        <v>1.000036149747692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009154498521633</v>
+        <v>0.9568524535648697</v>
       </c>
       <c r="D14">
-        <v>1.050077854046007</v>
+        <v>1.032813204905622</v>
       </c>
       <c r="E14">
-        <v>1.011734542861886</v>
+        <v>0.9709091294017722</v>
       </c>
       <c r="F14">
-        <v>1.050541555992502</v>
+        <v>1.019206562139048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04218909341453</v>
+        <v>1.055528260897423</v>
       </c>
       <c r="J14">
-        <v>1.015921470989574</v>
+        <v>0.9881757031567194</v>
       </c>
       <c r="K14">
-        <v>1.053597205135587</v>
+        <v>1.047157946567601</v>
       </c>
       <c r="L14">
-        <v>1.015397820423276</v>
+        <v>0.9864190518202018</v>
       </c>
       <c r="M14">
-        <v>1.054059237547601</v>
+        <v>1.033791644472783</v>
       </c>
       <c r="N14">
-        <v>1.009452340823464</v>
+        <v>1.000210820919342</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009254424610656</v>
+        <v>0.9574016352337229</v>
       </c>
       <c r="D15">
-        <v>1.050154689294461</v>
+        <v>1.033296547535093</v>
       </c>
       <c r="E15">
-        <v>1.011818733130857</v>
+        <v>0.9713361985050292</v>
       </c>
       <c r="F15">
-        <v>1.050638164562862</v>
+        <v>1.019788420578555</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042211152857573</v>
+        <v>1.055743756830251</v>
       </c>
       <c r="J15">
-        <v>1.015982587191303</v>
+        <v>0.988498008559307</v>
       </c>
       <c r="K15">
-        <v>1.053654565216355</v>
+        <v>1.047548122452799</v>
       </c>
       <c r="L15">
-        <v>1.01546164537625</v>
+        <v>0.9867446377646635</v>
       </c>
       <c r="M15">
-        <v>1.054136310174867</v>
+        <v>1.034276651680283</v>
       </c>
       <c r="N15">
-        <v>1.009472587640102</v>
+        <v>1.000317988079362</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009835999218071</v>
+        <v>0.960565144528633</v>
       </c>
       <c r="D16">
-        <v>1.050600761160548</v>
+        <v>1.036073977452494</v>
       </c>
       <c r="E16">
-        <v>1.012308885936296</v>
+        <v>0.9737995081961927</v>
       </c>
       <c r="F16">
-        <v>1.051199226095431</v>
+        <v>1.023132383549573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042338366792355</v>
+        <v>1.056976115228421</v>
       </c>
       <c r="J16">
-        <v>1.016338060811174</v>
+        <v>0.9903535746955965</v>
       </c>
       <c r="K16">
-        <v>1.053987033469413</v>
+        <v>1.049786225022789</v>
       </c>
       <c r="L16">
-        <v>1.015833018756299</v>
+        <v>0.9886203782350386</v>
       </c>
       <c r="M16">
-        <v>1.05458343156389</v>
+        <v>1.037060680164307</v>
       </c>
       <c r="N16">
-        <v>1.009590340334753</v>
+        <v>1.000934958790793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010200771395824</v>
+        <v>0.9625212774689315</v>
       </c>
       <c r="D17">
-        <v>1.050879562814147</v>
+        <v>1.037785321324868</v>
       </c>
       <c r="E17">
-        <v>1.012616458671837</v>
+        <v>0.9753254401572695</v>
       </c>
       <c r="F17">
-        <v>1.051550070171794</v>
+        <v>1.025193229846658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042417123353286</v>
+        <v>1.057730188843956</v>
       </c>
       <c r="J17">
-        <v>1.016560820097831</v>
+        <v>0.9915000008921463</v>
       </c>
       <c r="K17">
-        <v>1.054194354708083</v>
+        <v>1.051161757251538</v>
       </c>
       <c r="L17">
-        <v>1.016065869196448</v>
+        <v>0.9897803923484452</v>
       </c>
       <c r="M17">
-        <v>1.054862599087475</v>
+        <v>1.038773493647027</v>
       </c>
       <c r="N17">
-        <v>1.009664121799075</v>
+        <v>1.001316132573939</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010413524356977</v>
+        <v>0.9636523741394746</v>
       </c>
       <c r="D18">
-        <v>1.051041819552614</v>
+        <v>1.03877266236808</v>
       </c>
       <c r="E18">
-        <v>1.012795900974541</v>
+        <v>0.9762087519970352</v>
       </c>
       <c r="F18">
-        <v>1.051754316550228</v>
+        <v>1.026382384765732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042462685135309</v>
+        <v>1.058163332827293</v>
       </c>
       <c r="J18">
-        <v>1.016690672347655</v>
+        <v>0.9921625450981149</v>
       </c>
       <c r="K18">
-        <v>1.054314838920716</v>
+        <v>1.051954086211238</v>
       </c>
       <c r="L18">
-        <v>1.016201649820826</v>
+        <v>0.990451191488</v>
       </c>
       <c r="M18">
-        <v>1.055024963849049</v>
+        <v>1.03976074962661</v>
       </c>
       <c r="N18">
-        <v>1.009707127760893</v>
+        <v>1.001536416619362</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010486065487648</v>
+        <v>0.9640364000586186</v>
       </c>
       <c r="D19">
-        <v>1.051097083196887</v>
+        <v>1.039107503020377</v>
       </c>
       <c r="E19">
-        <v>1.012857092971486</v>
+        <v>0.9765088133808507</v>
       </c>
       <c r="F19">
-        <v>1.051823892242296</v>
+        <v>1.026785698277564</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04247815679162</v>
+        <v>1.058309900667923</v>
       </c>
       <c r="J19">
-        <v>1.016734935108442</v>
+        <v>0.9923874283182071</v>
       </c>
       <c r="K19">
-        <v>1.054355845780671</v>
+        <v>1.052222575390417</v>
       </c>
       <c r="L19">
-        <v>1.016247941189367</v>
+        <v>0.9906789446563423</v>
       </c>
       <c r="M19">
-        <v>1.05508024645333</v>
+        <v>1.040095403250874</v>
       </c>
       <c r="N19">
-        <v>1.009721786668261</v>
+        <v>1.001611185414359</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01016163608051</v>
+        <v>0.9623124316993841</v>
       </c>
       <c r="D20">
-        <v>1.050849687627723</v>
+        <v>1.03760283915211</v>
       </c>
       <c r="E20">
-        <v>1.012583454849073</v>
+        <v>0.9751624233649105</v>
       </c>
       <c r="F20">
-        <v>1.051512468773431</v>
+        <v>1.024973462429958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042408712361735</v>
+        <v>1.057649979295238</v>
       </c>
       <c r="J20">
-        <v>1.016536928349868</v>
+        <v>0.9913776396895212</v>
       </c>
       <c r="K20">
-        <v>1.054172156887329</v>
+        <v>1.051015214585932</v>
       </c>
       <c r="L20">
-        <v>1.01604089037957</v>
+        <v>0.9896565390749724</v>
       </c>
       <c r="M20">
-        <v>1.054832695547238</v>
+        <v>1.038590951694215</v>
       </c>
       <c r="N20">
-        <v>1.00965620879761</v>
+        <v>1.001275449293837</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009106739097662</v>
+        <v>0.9565893838607169</v>
       </c>
       <c r="D21">
-        <v>1.050041111191771</v>
+        <v>1.03258155296193</v>
       </c>
       <c r="E21">
-        <v>1.011694307191386</v>
+        <v>0.9707046125106312</v>
       </c>
       <c r="F21">
-        <v>1.050495360900299</v>
+        <v>1.018927701480456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042178529453797</v>
+        <v>1.055424874391806</v>
       </c>
       <c r="J21">
-        <v>1.015892256674922</v>
+        <v>0.9880212938843885</v>
       </c>
       <c r="K21">
-        <v>1.053569765847234</v>
+        <v>1.046970876200658</v>
       </c>
       <c r="L21">
-        <v>1.015367313847026</v>
+        <v>0.9862630939825471</v>
       </c>
       <c r="M21">
-        <v>1.054022375374976</v>
+        <v>1.033559141639623</v>
       </c>
       <c r="N21">
-        <v>1.009442662413433</v>
+        <v>1.000159479422947</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008443374241028</v>
+        <v>0.9528954506523798</v>
       </c>
       <c r="D22">
-        <v>1.049529461998626</v>
+        <v>1.029320793051916</v>
       </c>
       <c r="E22">
-        <v>1.011135635166361</v>
+        <v>0.967836827191811</v>
       </c>
       <c r="F22">
-        <v>1.049852314565923</v>
+        <v>1.015002843697801</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04203042674578</v>
+        <v>1.053962559565259</v>
       </c>
       <c r="J22">
-        <v>1.015486214597545</v>
+        <v>0.9858519568000582</v>
       </c>
       <c r="K22">
-        <v>1.053187039389641</v>
+        <v>1.044332949264074</v>
       </c>
       <c r="L22">
-        <v>1.01494348044766</v>
+        <v>0.9840735521201611</v>
       </c>
       <c r="M22">
-        <v>1.053508680002628</v>
+        <v>1.030282837277372</v>
       </c>
       <c r="N22">
-        <v>1.009308133052136</v>
+        <v>0.9994381635792301</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008795046709919</v>
+        <v>0.9548630742179677</v>
       </c>
       <c r="D23">
-        <v>1.04980100593561</v>
+        <v>1.031059509876082</v>
       </c>
       <c r="E23">
-        <v>1.011431762329661</v>
+        <v>0.9693634712126225</v>
       </c>
       <c r="F23">
-        <v>1.050193541717652</v>
+        <v>1.017095583285076</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042109258663453</v>
+        <v>1.054743913296327</v>
       </c>
       <c r="J23">
-        <v>1.015701532402228</v>
+        <v>0.9870077503383973</v>
       </c>
       <c r="K23">
-        <v>1.053390306673207</v>
+        <v>1.045740634529906</v>
       </c>
       <c r="L23">
-        <v>1.015168193503035</v>
+        <v>0.9852397528207324</v>
       </c>
       <c r="M23">
-        <v>1.053781398714005</v>
+        <v>1.032030663326699</v>
       </c>
       <c r="N23">
-        <v>1.009379474583471</v>
+        <v>0.9998224719248415</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010179319683393</v>
+        <v>0.9624068305838318</v>
       </c>
       <c r="D24">
-        <v>1.050863188061659</v>
+        <v>1.037685328480444</v>
       </c>
       <c r="E24">
-        <v>1.012598367731359</v>
+        <v>0.9752361044156418</v>
       </c>
       <c r="F24">
-        <v>1.051529460447138</v>
+        <v>1.025072805658329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042412514087187</v>
+        <v>1.057686243193769</v>
       </c>
       <c r="J24">
-        <v>1.016547724247886</v>
+        <v>0.9914329484067163</v>
       </c>
       <c r="K24">
-        <v>1.054182188494928</v>
+        <v>1.051081461745302</v>
       </c>
       <c r="L24">
-        <v>1.01605217734633</v>
+        <v>0.9897125209787192</v>
       </c>
       <c r="M24">
-        <v>1.054846209118573</v>
+        <v>1.038673470941685</v>
       </c>
       <c r="N24">
-        <v>1.009659784433558</v>
+        <v>1.001293838633713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011785199938692</v>
+        <v>0.9707760105063069</v>
       </c>
       <c r="D25">
-        <v>1.052081523861484</v>
+        <v>1.044950754198893</v>
       </c>
       <c r="E25">
-        <v>1.01395372644933</v>
+        <v>0.9817884265472152</v>
       </c>
       <c r="F25">
-        <v>1.053064217809813</v>
+        <v>1.033826871281723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042749687897841</v>
+        <v>1.060839274988941</v>
       </c>
       <c r="J25">
-        <v>1.017526562523082</v>
+        <v>0.9963285554188736</v>
       </c>
       <c r="K25">
-        <v>1.0550837489584</v>
+        <v>1.056889158525208</v>
       </c>
       <c r="L25">
-        <v>1.017076533179131</v>
+        <v>0.9946761895087965</v>
       </c>
       <c r="M25">
-        <v>1.056063461017491</v>
+        <v>1.045921820250575</v>
       </c>
       <c r="N25">
-        <v>1.009983909517986</v>
+        <v>1.002921435634285</v>
       </c>
     </row>
   </sheetData>
